--- a/data/CU_FILTERS.xlsx
+++ b/data/CU_FILTERS.xlsx
@@ -359,7 +359,7 @@
       </c>
       <c r="B1" s="0" t="inlineStr">
         <is>
-          <t>фильтр</t>
+          <t>FILTER_ID</t>
         </is>
       </c>
     </row>
